--- a/doc/13_内部設計/03_ファイル構成一覧表_ゆとりっぷ 1.1.xlsx
+++ b/doc/13_内部設計/03_ファイル構成一覧表_ゆとりっぷ 1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E1\doc\13_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D248B9AA-5145-4F2D-A3AC-8FE6236DD23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BDA4FF-C82F-4510-ABD8-191D5D0801A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,19 +650,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チェックリスト変更画面　処理</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CheckListEditServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -884,6 +871,22 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックリスト変更/新規画面　処理</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1370,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1444,7 +1447,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>89</v>
@@ -1564,10 +1567,10 @@
         <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1594,7 +1597,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1618,10 +1621,10 @@
         <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1648,7 +1651,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1672,10 +1675,10 @@
         <v>26</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1783,7 +1786,7 @@
         <v>48</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1810,7 +1813,7 @@
         <v>61</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1837,7 +1840,7 @@
         <v>62</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1864,7 +1867,7 @@
         <v>63</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1891,7 +1894,7 @@
         <v>64</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1942,10 +1945,10 @@
         <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -1969,10 +1972,10 @@
         <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1996,10 +1999,10 @@
         <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -2026,7 +2029,7 @@
         <v>56</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -2053,7 +2056,7 @@
         <v>57</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -2080,7 +2083,7 @@
         <v>79</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -2107,7 +2110,7 @@
         <v>65</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="7"/>
@@ -2133,7 +2136,7 @@
         <v>66</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -2241,7 +2244,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="1"/>
@@ -2268,7 +2271,7 @@
         <v>27</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="1"/>
@@ -2538,7 +2541,7 @@
         <v>32</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -2565,7 +2568,7 @@
         <v>33</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -2592,7 +2595,7 @@
         <v>28</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2700,7 +2703,7 @@
         <v>58</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2727,7 +2730,7 @@
         <v>59</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -2754,7 +2757,7 @@
         <v>60</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2787,21 +2790,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3AB27C864B3094F9396A6D72E012482" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="852daf809ddd011eab6f7a9bc2e93e1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87cf0ee8-fe20-4b5a-8adf-0a4439756175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da593f20671e75e3083145974722a37d" ns3:_="">
     <xsd:import namespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
@@ -2945,10 +2933,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32B34739-5FE0-468C-AA7E-A4F3B879504D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2970,19 +2983,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32B34739-5FE0-468C-AA7E-A4F3B879504D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/13_内部設計/03_ファイル構成一覧表_ゆとりっぷ 1.1.xlsx
+++ b/doc/13_内部設計/03_ファイル構成一覧表_ゆとりっぷ 1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E1\doc\13_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BDA4FF-C82F-4510-ABD8-191D5D0801A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CCEE40-4C0F-447D-98F5-A12773493659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="133">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -887,6 +887,65 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部設計書</t>
+    <rPh sb="0" eb="4">
+      <t>ナイブセッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024-06-12午後</t>
+    <rPh sb="10" eb="12">
+      <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装日</t>
+    <rPh sb="0" eb="3">
+      <t>ジッソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松川</t>
+    <rPh sb="0" eb="2">
+      <t>マツカワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -895,7 +954,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -919,6 +978,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1022,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,6 +1119,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1371,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1389,12 +1460,39 @@
     <col min="14" max="14" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="11">
+        <v>45455</v>
+      </c>
+      <c r="I1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1431,8 +1529,11 @@
       <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O2" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1461,8 +1562,9 @@
       <c r="N3" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1491,8 +1593,9 @@
       <c r="N4" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1521,8 +1624,9 @@
       <c r="N5" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1551,8 +1655,9 @@
       <c r="N6" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1581,8 +1686,9 @@
       <c r="N7" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1608,8 +1714,9 @@
       <c r="N8" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1635,8 +1742,9 @@
       <c r="N9" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1662,8 +1770,9 @@
       <c r="N10" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1689,8 +1798,9 @@
       <c r="N11" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1716,8 +1826,9 @@
       <c r="N12" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1743,8 +1854,9 @@
       <c r="N13" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1770,8 +1882,9 @@
       <c r="N14" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1797,8 +1910,9 @@
       <c r="N15" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1824,8 +1938,9 @@
       <c r="N16" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1851,8 +1966,9 @@
       <c r="N17" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1878,8 +1994,9 @@
       <c r="N18" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1905,8 +2022,9 @@
       <c r="N19" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C20" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1932,8 +2050,9 @@
       <c r="N20" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C21" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1959,8 +2078,9 @@
       <c r="N21" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C22" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1986,8 +2106,9 @@
       <c r="N22" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C23" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2013,8 +2134,9 @@
       <c r="N23" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C24" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2040,8 +2162,9 @@
       <c r="N24" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C25" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2067,8 +2190,9 @@
       <c r="N25" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C26" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2094,8 +2218,9 @@
       <c r="N26" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C27" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2121,8 +2246,9 @@
       <c r="N27" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C28" s="7">
         <v>49</v>
       </c>
@@ -2147,8 +2273,9 @@
       <c r="N28" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C29" s="1">
         <f t="shared" ref="C29:C51" si="1">ROW()-2</f>
         <v>27</v>
@@ -2174,8 +2301,9 @@
       <c r="N29" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -2201,8 +2329,9 @@
       <c r="N30" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C31" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -2228,8 +2357,9 @@
       <c r="N31" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -2255,8 +2385,9 @@
       <c r="N32" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -2282,8 +2413,9 @@
       <c r="N33" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -2309,8 +2441,9 @@
       <c r="N34" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C35" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -2336,8 +2469,9 @@
       <c r="N35" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C36" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -2363,8 +2497,9 @@
       <c r="N36" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -2390,8 +2525,9 @@
       <c r="N37" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2417,8 +2553,9 @@
       <c r="N38" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C39" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -2444,8 +2581,9 @@
       <c r="N39" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C40" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -2471,8 +2609,9 @@
       <c r="N40" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C41" s="3">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2498,8 +2637,9 @@
       <c r="N41" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C42" s="3">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2525,8 +2665,9 @@
       <c r="N42" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C43" s="3">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2552,8 +2693,9 @@
       <c r="N43" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C44" s="3">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2579,8 +2721,9 @@
       <c r="N44" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C45" s="3">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2606,8 +2749,9 @@
       <c r="N45" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C46" s="3">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2633,8 +2777,9 @@
       <c r="N46" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O46" s="12"/>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C47" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2660,8 +2805,9 @@
       <c r="N47" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C48" s="3">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2687,8 +2833,9 @@
       <c r="N48" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C49" s="3">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2714,8 +2861,9 @@
       <c r="N49" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O49" s="12"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C50" s="3">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2741,8 +2889,9 @@
       <c r="N50" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="O50" s="12"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C51" s="3">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2768,6 +2917,7 @@
       <c r="N51" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="O51" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:N51" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
@@ -2790,6 +2940,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3AB27C864B3094F9396A6D72E012482" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="852daf809ddd011eab6f7a9bc2e93e1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87cf0ee8-fe20-4b5a-8adf-0a4439756175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da593f20671e75e3083145974722a37d" ns3:_="">
     <xsd:import namespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
@@ -2933,12 +3089,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2949,6 +3099,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32B34739-5FE0-468C-AA7E-A4F3B879504D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2966,22 +3132,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
